--- a/ct2024s_grade/csv/作業成績表.xlsx
+++ b/ct2024s_grade/csv/作業成績表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\NTUT\Font design and text encoding\ct2024s\ct2024s_grade\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B072A2B-9346-4BA7-B74D-4C3A32CB5A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3745AA-6F3E-49C9-8F44-A33BF0AC546F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -989,8 +989,8 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
@@ -1138,7 +1138,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H4" s="8">
         <v>10</v>
@@ -1153,7 +1153,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="8">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
@@ -1185,13 +1185,13 @@
         <v>10</v>
       </c>
       <c r="J5" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K5" s="8">
         <v>0</v>
       </c>
       <c r="L5" s="8">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
@@ -1527,13 +1527,13 @@
         <v>10</v>
       </c>
       <c r="J14" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K14" s="8">
         <v>10</v>
       </c>
       <c r="L14" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
@@ -1749,7 +1749,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I20" s="8">
         <v>10</v>
@@ -1761,7 +1761,7 @@
         <v>10</v>
       </c>
       <c r="L20" s="8">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
@@ -1831,13 +1831,13 @@
         <v>10</v>
       </c>
       <c r="J22" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K22" s="8">
         <v>10</v>
       </c>
       <c r="L22" s="8">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
@@ -1907,13 +1907,13 @@
         <v>10</v>
       </c>
       <c r="J24" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K24" s="8">
         <v>10</v>
       </c>
       <c r="L24" s="8">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
@@ -2059,13 +2059,13 @@
         <v>10</v>
       </c>
       <c r="J28" s="8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K28" s="8">
         <v>10</v>
       </c>
       <c r="L28" s="8">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
@@ -2509,7 +2509,7 @@
         <v>10</v>
       </c>
       <c r="H40" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I40" s="9">
         <v>10</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
@@ -2591,13 +2591,13 @@
         <v>10</v>
       </c>
       <c r="J42" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K42" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L42" s="9">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" thickBot="1">

--- a/ct2024s_grade/csv/作業成績表.xlsx
+++ b/ct2024s_grade/csv/作業成績表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\NTUT\Font design and text encoding\ct2024s\ct2024s_grade\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3745AA-6F3E-49C9-8F44-A33BF0AC546F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4320D8E-4141-467A-8171-58EF4AEBFA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -989,8 +989,8 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N44" sqref="N44"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
@@ -2047,7 +2047,7 @@
         <v>72</v>
       </c>
       <c r="F28" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G28" s="8">
         <v>10</v>
@@ -2065,7 +2065,7 @@
         <v>10</v>
       </c>
       <c r="L28" s="8">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" thickBot="1">

--- a/ct2024s_grade/csv/作業成績表.xlsx
+++ b/ct2024s_grade/csv/作業成績表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\NTUT\Font design and text encoding\ct2024s\ct2024s_grade\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4320D8E-4141-467A-8171-58EF4AEBFA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F047094-5DEA-4D17-A3BC-ADEB5525F83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -678,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -743,6 +743,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -989,8 +995,8 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L28" sqref="L28"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
@@ -1058,22 +1064,22 @@
       <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="11">
-        <v>10</v>
-      </c>
-      <c r="G2" s="11">
-        <v>10</v>
-      </c>
-      <c r="H2" s="11">
-        <v>10</v>
-      </c>
-      <c r="I2" s="11">
-        <v>10</v>
-      </c>
-      <c r="J2" s="11">
+      <c r="F2" s="22">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8">
+        <v>10</v>
+      </c>
+      <c r="H2" s="8">
+        <v>10</v>
+      </c>
+      <c r="I2" s="8">
+        <v>10</v>
+      </c>
+      <c r="J2" s="8">
         <v>9</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="8">
         <v>10</v>
       </c>
       <c r="L2" s="11">
@@ -1096,7 +1102,7 @@
       <c r="E3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="22">
         <v>10</v>
       </c>
       <c r="G3" s="8">
@@ -1134,7 +1140,7 @@
       <c r="E4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="22">
         <v>10</v>
       </c>
       <c r="G4" s="8">
@@ -1172,7 +1178,7 @@
       <c r="E5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="22">
         <v>10</v>
       </c>
       <c r="G5" s="8">
@@ -1210,7 +1216,7 @@
       <c r="E6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="22">
         <v>10</v>
       </c>
       <c r="G6" s="8">
@@ -1248,7 +1254,7 @@
       <c r="E7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="22">
         <v>10</v>
       </c>
       <c r="G7" s="8">
@@ -1286,7 +1292,7 @@
       <c r="E8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="22">
         <v>10</v>
       </c>
       <c r="G8" s="8">
@@ -1324,7 +1330,7 @@
       <c r="E9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="22">
         <v>10</v>
       </c>
       <c r="G9" s="8">
@@ -1362,7 +1368,7 @@
       <c r="E10" s="14">
         <v>112318067</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="22">
         <v>10</v>
       </c>
       <c r="G10" s="8">
@@ -1400,7 +1406,7 @@
       <c r="E11" s="16">
         <v>112318080</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="22">
         <v>10</v>
       </c>
       <c r="G11" s="8">
@@ -1413,7 +1419,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K11" s="8">
         <v>10</v>
@@ -1438,7 +1444,7 @@
       <c r="E12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="22">
         <v>10</v>
       </c>
       <c r="G12" s="8">
@@ -1476,7 +1482,7 @@
       <c r="E13" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="22">
         <v>10</v>
       </c>
       <c r="G13" s="8">
@@ -1514,7 +1520,7 @@
       <c r="E14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="22">
         <v>10</v>
       </c>
       <c r="G14" s="8">
@@ -1552,7 +1558,7 @@
       <c r="E15" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="22">
         <v>10</v>
       </c>
       <c r="G15" s="8">
@@ -1590,7 +1596,7 @@
       <c r="E16" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="22">
         <v>10</v>
       </c>
       <c r="G16" s="8">
@@ -1628,7 +1634,7 @@
       <c r="E17" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="22">
         <v>10</v>
       </c>
       <c r="G17" s="8">
@@ -1666,7 +1672,7 @@
       <c r="E18" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="22">
         <v>10</v>
       </c>
       <c r="G18" s="8">
@@ -1704,7 +1710,7 @@
       <c r="E19" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="22">
         <v>10</v>
       </c>
       <c r="G19" s="8">
@@ -1742,7 +1748,7 @@
       <c r="E20" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="22">
         <v>10</v>
       </c>
       <c r="G20" s="8">
@@ -1780,7 +1786,7 @@
       <c r="E21" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="22">
         <v>10</v>
       </c>
       <c r="G21" s="8">
@@ -1818,7 +1824,7 @@
       <c r="E22" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="22">
         <v>10</v>
       </c>
       <c r="G22" s="8">
@@ -1856,7 +1862,7 @@
       <c r="E23" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="22">
         <v>10</v>
       </c>
       <c r="G23" s="8">
@@ -1869,7 +1875,7 @@
         <v>10</v>
       </c>
       <c r="J23" s="8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K23" s="8">
         <v>10</v>
@@ -1894,7 +1900,7 @@
       <c r="E24" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="22">
         <v>10</v>
       </c>
       <c r="G24" s="8">
@@ -1932,7 +1938,7 @@
       <c r="E25" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="22">
         <v>10</v>
       </c>
       <c r="G25" s="8">
@@ -1970,7 +1976,7 @@
       <c r="E26" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="22">
         <v>10</v>
       </c>
       <c r="G26" s="8">
@@ -2008,7 +2014,7 @@
       <c r="E27" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="22">
         <v>10</v>
       </c>
       <c r="G27" s="8">
@@ -2046,7 +2052,7 @@
       <c r="E28" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="22">
         <v>10</v>
       </c>
       <c r="G28" s="8">
@@ -2084,7 +2090,7 @@
       <c r="E29" s="14">
         <v>107590028</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="23">
         <v>0</v>
       </c>
       <c r="G29" s="9">
@@ -2122,7 +2128,7 @@
       <c r="E30" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="23">
         <v>10</v>
       </c>
       <c r="G30" s="9">
@@ -2160,7 +2166,7 @@
       <c r="E31" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="23">
         <v>10</v>
       </c>
       <c r="G31" s="9">
@@ -2198,7 +2204,7 @@
       <c r="E32" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="23">
         <v>0</v>
       </c>
       <c r="G32" s="9">
@@ -2236,7 +2242,7 @@
       <c r="E33" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="23">
         <v>10</v>
       </c>
       <c r="G33" s="9">
@@ -2274,7 +2280,7 @@
       <c r="E34" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="23">
         <v>10</v>
       </c>
       <c r="G34" s="9">
@@ -2312,7 +2318,7 @@
       <c r="E35" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="23">
         <v>0</v>
       </c>
       <c r="G35" s="9">
@@ -2350,7 +2356,7 @@
       <c r="E36" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="23">
         <v>10</v>
       </c>
       <c r="G36" s="9">
@@ -2388,7 +2394,7 @@
       <c r="E37" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="23">
         <v>0</v>
       </c>
       <c r="G37" s="9">
@@ -2426,7 +2432,7 @@
       <c r="E38" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="23">
         <v>10</v>
       </c>
       <c r="G38" s="9">
@@ -2442,7 +2448,7 @@
         <v>10</v>
       </c>
       <c r="K38" s="9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L38" s="9">
         <v>56</v>
@@ -2464,7 +2470,7 @@
       <c r="E39" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="23">
         <v>10</v>
       </c>
       <c r="G39" s="9">
@@ -2502,7 +2508,7 @@
       <c r="E40" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="23">
         <v>10</v>
       </c>
       <c r="G40" s="9">
@@ -2540,7 +2546,7 @@
       <c r="E41" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="23">
         <v>0</v>
       </c>
       <c r="G41" s="9">
@@ -2578,7 +2584,7 @@
       <c r="E42" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="23">
         <v>10</v>
       </c>
       <c r="G42" s="9">
@@ -2616,8 +2622,8 @@
       <c r="E43" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F43" s="9">
-        <v>0</v>
+      <c r="F43" s="23">
+        <v>10</v>
       </c>
       <c r="G43" s="9">
         <v>10</v>
@@ -2626,13 +2632,13 @@
         <v>8</v>
       </c>
       <c r="I43" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J43" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K43" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L43" s="9">
         <v>18</v>
@@ -2654,7 +2660,7 @@
       <c r="E44" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="23">
         <v>10</v>
       </c>
       <c r="G44" s="9">
@@ -2692,7 +2698,7 @@
       <c r="E45" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="23">
         <v>10</v>
       </c>
       <c r="G45" s="9">
@@ -2730,7 +2736,7 @@
       <c r="E46" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="23">
         <v>10</v>
       </c>
       <c r="G46" s="9">
@@ -2768,7 +2774,7 @@
       <c r="E47" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="23">
         <v>10</v>
       </c>
       <c r="G47" s="9">
@@ -2806,7 +2812,7 @@
       <c r="E48" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="23">
         <v>10</v>
       </c>
       <c r="G48" s="9">
@@ -2844,7 +2850,7 @@
       <c r="E49" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="23">
         <v>10</v>
       </c>
       <c r="G49" s="9">
@@ -2882,7 +2888,7 @@
       <c r="E50" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="23">
         <v>10</v>
       </c>
       <c r="G50" s="9">
@@ -2920,7 +2926,7 @@
       <c r="E51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="23">
         <v>10</v>
       </c>
       <c r="G51" s="9">

--- a/ct2024s_grade/csv/作業成績表.xlsx
+++ b/ct2024s_grade/csv/作業成績表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\NTUT\Font design and text encoding\ct2024s\ct2024s_grade\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F047094-5DEA-4D17-A3BC-ADEB5525F83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E5CD94-7A95-468F-8658-F1838856342B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -678,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -749,6 +749,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -995,8 +998,8 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N43" sqref="N43"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
@@ -1064,22 +1067,22 @@
       <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="22">
-        <v>10</v>
-      </c>
-      <c r="G2" s="8">
-        <v>10</v>
-      </c>
-      <c r="H2" s="8">
-        <v>10</v>
-      </c>
-      <c r="I2" s="8">
-        <v>10</v>
-      </c>
-      <c r="J2" s="8">
+      <c r="F2" s="24">
+        <v>10</v>
+      </c>
+      <c r="G2" s="11">
+        <v>10</v>
+      </c>
+      <c r="H2" s="11">
+        <v>10</v>
+      </c>
+      <c r="I2" s="11">
+        <v>10</v>
+      </c>
+      <c r="J2" s="11">
         <v>9</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="11">
         <v>10</v>
       </c>
       <c r="L2" s="11">
@@ -1425,7 +1428,7 @@
         <v>10</v>
       </c>
       <c r="L11" s="8">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
@@ -1881,7 +1884,7 @@
         <v>10</v>
       </c>
       <c r="L23" s="8">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
@@ -2451,7 +2454,7 @@
         <v>10</v>
       </c>
       <c r="L38" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
@@ -2641,7 +2644,7 @@
         <v>9</v>
       </c>
       <c r="L43" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" thickBot="1">

--- a/ct2024s_grade/csv/作業成績表.xlsx
+++ b/ct2024s_grade/csv/作業成績表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\NTUT\Font design and text encoding\ct2024s\ct2024s_grade\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E5CD94-7A95-468F-8658-F1838856342B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CC6461-F118-47D7-B497-2ED9A803F466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -998,8 +998,8 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
@@ -2094,7 +2094,7 @@
         <v>107590028</v>
       </c>
       <c r="F29" s="23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G29" s="9">
         <v>10</v>
@@ -2109,10 +2109,10 @@
         <v>4</v>
       </c>
       <c r="K29" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L29" s="9">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" thickBot="1">

--- a/ct2024s_grade/csv/作業成績表.xlsx
+++ b/ct2024s_grade/csv/作業成績表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\NTUT\Font design and text encoding\ct2024s\ct2024s_grade\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CC6461-F118-47D7-B497-2ED9A803F466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FDD451-B208-42DE-BE5B-16441C2C9ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5868" yWindow="3372" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -678,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -752,6 +752,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -998,8 +1004,8 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N29" sqref="N29"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
@@ -2398,7 +2404,7 @@
         <v>94</v>
       </c>
       <c r="F37" s="23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G37" s="9">
         <v>10</v>
@@ -2407,16 +2413,16 @@
         <v>10</v>
       </c>
       <c r="I37" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J37" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K37" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L37" s="9">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
@@ -2549,26 +2555,26 @@
       <c r="E41" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="25">
+        <v>10</v>
+      </c>
+      <c r="G41" s="26">
+        <v>10</v>
+      </c>
+      <c r="H41" s="26">
+        <v>8</v>
+      </c>
+      <c r="I41" s="26">
+        <v>10</v>
+      </c>
+      <c r="J41" s="26">
+        <v>8</v>
+      </c>
+      <c r="K41" s="26">
         <v>0</v>
       </c>
-      <c r="G41" s="9">
-        <v>10</v>
-      </c>
-      <c r="H41" s="9">
-        <v>8</v>
-      </c>
-      <c r="I41" s="9">
-        <v>0</v>
-      </c>
-      <c r="J41" s="9">
-        <v>0</v>
-      </c>
-      <c r="K41" s="9">
-        <v>0</v>
-      </c>
-      <c r="L41" s="9">
-        <v>18</v>
+      <c r="L41" s="26">
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
